--- a/data/trans_bre/P2A_senso_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_senso_R-Provincia-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>1.688905856777978</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1.652648039274497</v>
+        <v>1.652648039274496</v>
       </c>
     </row>
     <row r="5">
@@ -660,26 +660,26 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.110956993464315</v>
+        <v>-2.241073871665883</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.157891403552806</v>
+        <v>-3.078476700477768</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.5264783794198944</v>
+        <v>-0.5368704781638982</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.3572156784219407</v>
-      </c>
-      <c r="G5" s="6" t="inlineStr"/>
+        <v>-0.2410456239247978</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6257415797112609</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>-0.7611441047027616</v>
-      </c>
+        <v>-0.674670464248348</v>
+      </c>
+      <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="n">
-        <v>-0.7219938118628665</v>
+        <v>-0.462230590780318</v>
       </c>
     </row>
     <row r="6">
@@ -690,20 +690,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.897944837028656</v>
+        <v>1.870145427763461</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.359983376661424</v>
+        <v>3.489864837031873</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.321964224858316</v>
+        <v>3.387357953199476</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.402030805522451</v>
-      </c>
-      <c r="G6" s="6" t="inlineStr"/>
+        <v>2.463823591166077</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>7.225213389312682</v>
+      </c>
       <c r="H6" s="6" t="n">
-        <v>1.641779885343022</v>
+        <v>1.594877983200509</v>
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="inlineStr"/>
@@ -729,7 +731,7 @@
         <v>0.01636741030507623</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8642297987502289</v>
+        <v>0.8642297987502295</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.3125505181519908</v>
@@ -741,7 +743,7 @@
         <v>0.04140262468739584</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1763531615108752</v>
+        <v>0.1763531615108754</v>
       </c>
     </row>
     <row r="8">
@@ -752,26 +754,26 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.623210515576787</v>
+        <v>-2.628159002607329</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.281871668995505</v>
+        <v>-1.259013372255919</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.7923780666947031</v>
+        <v>-0.7844916065220129</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.889873397381445</v>
+        <v>-1.716072858984887</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7788528726650317</v>
+        <v>-0.7441911778424085</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5930706475183292</v>
+        <v>-0.5391136704038439</v>
       </c>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="n">
-        <v>-0.3000852488550702</v>
+        <v>-0.2789208567567978</v>
       </c>
     </row>
     <row r="9">
@@ -782,26 +784,26 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9309594852110571</v>
+        <v>0.9059929387318659</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.986955989942949</v>
+        <v>2.04323481984673</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8222023828346821</v>
+        <v>0.7983067624806627</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.184544044036727</v>
+        <v>3.283259295918048</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7298281519855881</v>
+        <v>0.7417228040975745</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.107810726282142</v>
+        <v>2.808610637247321</v>
       </c>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="n">
-        <v>0.9028379040848716</v>
+        <v>0.9564156524375812</v>
       </c>
     </row>
     <row r="10">
@@ -848,24 +850,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.381473708137647</v>
+        <v>-1.160028577712361</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.25190933568778</v>
+        <v>-3.244552187441145</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.219082929101683</v>
+        <v>-1.48490494389744</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.877093571380376</v>
+        <v>-2.786925179284949</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
-      <c r="H11" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.7918423971511083</v>
+        <v>-0.7786799934578396</v>
       </c>
     </row>
     <row r="12">
@@ -876,24 +876,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5516644337048208</v>
+        <v>0.553055276285002</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9660535258916407</v>
+        <v>1.099999861181253</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.071145600628482</v>
+        <v>1.065634863600227</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5669923791724503</v>
+        <v>0.5653534604076409</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
-      <c r="H12" s="6" t="n">
-        <v>2.616138285514058</v>
-      </c>
+      <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>0.6593165617960967</v>
+        <v>0.6432733225983754</v>
       </c>
     </row>
     <row r="13">
@@ -940,28 +938,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.563526431286405</v>
+        <v>-3.518750733448648</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3972700356779689</v>
+        <v>0.3690559690896675</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.449637012630817</v>
+        <v>-0.734175824334067</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.015651353679633</v>
+        <v>-3.120402793045783</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8906261306705848</v>
+        <v>-0.8893045981329512</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.007279252240129389</v>
+        <v>-0.1637220000031552</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5723984246620121</v>
+        <v>-0.6173546559359911</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.788084618521289</v>
+        <v>-0.8013567488771571</v>
       </c>
     </row>
     <row r="15">
@@ -972,26 +970,26 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5808244688443429</v>
+        <v>0.6425153069454117</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.624654131545325</v>
+        <v>4.682919321728651</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.816906387852637</v>
+        <v>3.455251163652949</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.968428941376953</v>
+        <v>1.861340231689096</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5899116424786714</v>
+        <v>0.6205852857146166</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>13.59403837816993</v>
+        <v>13.67134341668105</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>2.376326580694612</v>
+        <v>2.008756065844865</v>
       </c>
     </row>
     <row r="16">
@@ -1038,26 +1036,26 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.66867085722702</v>
+        <v>-1.446636005680254</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.272149896407424</v>
+        <v>-6.916653706852474</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.776141505425876</v>
+        <v>-2.634506057756896</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3199337050859205</v>
+        <v>0.3690560715086333</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3959869681408321</v>
+        <v>-0.4299203372916998</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.6526693385538374</v>
+        <v>-0.711059929083724</v>
       </c>
       <c r="I17" s="6" t="inlineStr"/>
       <c r="J17" s="6" t="n">
-        <v>-0.2103125060196385</v>
+        <v>-0.183652670597951</v>
       </c>
     </row>
     <row r="18">
@@ -1068,22 +1066,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.240069401021064</v>
+        <v>6.302598355959431</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.362724254479574</v>
+        <v>3.430468359171289</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.603876739195314</v>
+        <v>3.654331465699435</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.736744342857167</v>
+        <v>3.882986168790142</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8604172991549583</v>
+        <v>0.8340650625949777</v>
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="inlineStr"/>
@@ -1109,7 +1107,7 @@
         <v>-1.140625900482574</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1.159725771974051</v>
+        <v>1.15972577197405</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.08929848921089903</v>
@@ -1121,7 +1119,7 @@
         <v>-0.4499177007590411</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.3950589983513584</v>
+        <v>0.395058998351358</v>
       </c>
     </row>
     <row r="20">
@@ -1132,24 +1130,24 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.173997994352929</v>
+        <v>-1.159206522512871</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.7701784522654813</v>
+        <v>-0.4509149524012253</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-4.037349094744705</v>
+        <v>-3.729615450500126</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-1.315112195676797</v>
+        <v>-1.216974115140415</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.9190044888454441</v>
+        <v>-0.9013942499672957</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3782277098355338</v>
+        <v>-0.3015556363872953</v>
       </c>
     </row>
     <row r="21">
@@ -1160,24 +1158,24 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6895230077285878</v>
+        <v>0.6893078580461887</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.214241155126225</v>
+        <v>2.526190772232406</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.007200255619584</v>
+        <v>1.244294345267281</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.514904526740396</v>
+        <v>3.513762145807364</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>1.421454018834601</v>
+        <v>2.164760401957612</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.996114711713117</v>
+        <v>1.875147042226307</v>
       </c>
     </row>
     <row r="22">
@@ -1224,28 +1222,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.335342199111183</v>
+        <v>-1.327927047811807</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.3616885696673496</v>
+        <v>-0.2572856730392862</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.568651060670131</v>
+        <v>-1.72052004514191</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.3310641365931474</v>
+        <v>-0.2636319207850341</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.5780674175383963</v>
+        <v>-0.5870261163993995</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.2969542672398049</v>
+        <v>-0.2712667588480335</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.7279523158780359</v>
+        <v>-0.72930462756015</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.08673568979001532</v>
+        <v>-0.0546038347252699</v>
       </c>
     </row>
     <row r="24">
@@ -1256,28 +1254,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.605309055098523</v>
+        <v>1.526026586332515</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.234310253035539</v>
+        <v>2.591836600559925</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.206176287531147</v>
+        <v>1.099449957767301</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.255696919167116</v>
+        <v>4.547882764342335</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.616588069589819</v>
+        <v>1.627011732791255</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>3.8916900253001</v>
+        <v>4.433053968951536</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.746489540941038</v>
+        <v>1.646241659623937</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.398550397249305</v>
+        <v>1.625400310009657</v>
       </c>
     </row>
     <row r="25">
@@ -1324,28 +1322,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.2497275530102822</v>
+        <v>-0.2182735828622399</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.7202815147090974</v>
+        <v>-0.5566660778975241</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.141885158151764</v>
+        <v>-1.089060978637392</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.9325600460847261</v>
+        <v>-0.9575918280925012</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2656544025918285</v>
+        <v>-0.2444843175782659</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5046810483619045</v>
+        <v>-0.4611258454101475</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.800351110152853</v>
+        <v>-0.785146791019347</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.7515299986921018</v>
+        <v>-0.7567023318426214</v>
       </c>
     </row>
     <row r="27">
@@ -1356,28 +1354,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.332961332857537</v>
+        <v>2.251928880942989</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.553984376279989</v>
+        <v>1.683190889108412</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.846097412161491</v>
+        <v>0.8944621123130544</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.7818773743090488</v>
+        <v>0.7129109504805365</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4.009355902667868</v>
+        <v>4.3172705865614</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.414333694805595</v>
+        <v>3.55301290789594</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.622116476700805</v>
+        <v>2.633607407759626</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>4.784764454060983</v>
+        <v>3.597284101044178</v>
       </c>
     </row>
     <row r="28">
@@ -1401,7 +1399,7 @@
         <v>0.04923872643423245</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.7384182323910169</v>
+        <v>0.7384182323910162</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07104410661191385</v>
@@ -1413,7 +1411,7 @@
         <v>0.04851195184462889</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.2964229972996462</v>
+        <v>0.2964229972996459</v>
       </c>
     </row>
     <row r="29">
@@ -1424,28 +1422,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.4513283252206783</v>
+        <v>-0.4624230264872249</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.2630052867446616</v>
+        <v>-0.1899478696434681</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.463739505291284</v>
+        <v>-0.4348744778278926</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.03848559805666515</v>
+        <v>-0.1226744177080743</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.2472561590144333</v>
+        <v>-0.2529513866339032</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.1273298271975727</v>
+        <v>-0.09256625864397504</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.3638653416422708</v>
+        <v>-0.3521521695215666</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.0146009150553193</v>
+        <v>-0.04779112797860226</v>
       </c>
     </row>
     <row r="30">
@@ -1456,28 +1454,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7509208636475755</v>
+        <v>0.7225579517373297</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.174666570128533</v>
+        <v>1.218949075722497</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.5846941016534832</v>
+        <v>0.5636961018744696</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.452014340155555</v>
+        <v>1.461596761024008</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.6057394098469125</v>
+        <v>0.600614403553824</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8518068160194631</v>
+        <v>0.8733892452994412</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7594384307022163</v>
+        <v>0.7638186487901784</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.6923980980319234</v>
+        <v>0.6805716690360866</v>
       </c>
     </row>
     <row r="31">
